--- a/data/mockito/mockito-1.xlsx
+++ b/data/mockito/mockito-1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2803"/>
+  <dimension ref="A1:N2804"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,46 @@
           <t>faulty</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>pre_0.3</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>pre_0.5</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pre_0.7</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>pre_1</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>pre_1.3</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>pre_1.5</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>pre_1.7</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>pre_2</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -481,6 +521,46 @@
       <c r="F2" t="n">
         <v>0</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,6 +590,46 @@
       <c r="F3" t="n">
         <v>0</v>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -539,6 +659,46 @@
       <c r="F4" t="n">
         <v>0</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,6 +728,46 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -597,6 +797,46 @@
       <c r="F6" t="n">
         <v>0</v>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -626,6 +866,46 @@
       <c r="F7" t="n">
         <v>0</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -655,6 +935,46 @@
       <c r="F8" t="n">
         <v>0</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -684,6 +1004,46 @@
       <c r="F9" t="n">
         <v>0</v>
       </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -713,6 +1073,41 @@
       <c r="F10" t="n">
         <v>0</v>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -742,6 +1137,41 @@
       <c r="F11" t="n">
         <v>0</v>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -771,6 +1201,41 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -800,6 +1265,41 @@
       <c r="F13" t="n">
         <v>0</v>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -829,6 +1329,41 @@
       <c r="F14" t="n">
         <v>0</v>
       </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -858,6 +1393,41 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -887,6 +1457,36 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -916,6 +1516,36 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -945,6 +1575,36 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -974,6 +1634,36 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1003,6 +1693,36 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1032,6 +1752,31 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1061,6 +1806,31 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1090,6 +1860,31 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1119,6 +1914,31 @@
       <c r="F24" t="n">
         <v>0</v>
       </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1148,6 +1968,31 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1177,6 +2022,31 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1206,6 +2076,31 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1235,6 +2130,31 @@
       <c r="F28" t="n">
         <v>0</v>
       </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1264,6 +2184,31 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1293,6 +2238,26 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1322,6 +2287,26 @@
       <c r="F31" t="n">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1351,6 +2336,26 @@
       <c r="F32" t="n">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1380,6 +2385,26 @@
       <c r="F33" t="n">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1409,6 +2434,26 @@
       <c r="F34" t="n">
         <v>0</v>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1438,6 +2483,26 @@
       <c r="F35" t="n">
         <v>0</v>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1467,6 +2532,26 @@
       <c r="F36" t="n">
         <v>0</v>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1496,6 +2581,26 @@
       <c r="F37" t="n">
         <v>0</v>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1525,6 +2630,21 @@
       <c r="F38" t="n">
         <v>0</v>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1554,6 +2674,21 @@
       <c r="F39" t="n">
         <v>0</v>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1583,6 +2718,21 @@
       <c r="F40" t="n">
         <v>0</v>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1612,6 +2762,21 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1641,6 +2806,21 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1670,6 +2850,21 @@
       <c r="F43" t="n">
         <v>0</v>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1699,6 +2894,16 @@
       <c r="F44" t="n">
         <v>0</v>
       </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1728,6 +2933,16 @@
       <c r="F45" t="n">
         <v>0</v>
       </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1757,6 +2972,16 @@
       <c r="F46" t="n">
         <v>0</v>
       </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1786,6 +3011,16 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1815,6 +3050,16 @@
       <c r="F48" t="n">
         <v>0</v>
       </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1844,6 +3089,11 @@
       <c r="F49" t="n">
         <v>0</v>
       </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1873,6 +3123,11 @@
       <c r="F50" t="n">
         <v>0</v>
       </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1902,6 +3157,11 @@
       <c r="F51" t="n">
         <v>0</v>
       </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1931,6 +3191,11 @@
       <c r="F52" t="n">
         <v>0</v>
       </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1960,6 +3225,11 @@
       <c r="F53" t="n">
         <v>0</v>
       </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1989,6 +3259,11 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2018,6 +3293,11 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2047,6 +3327,11 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2076,6 +3361,11 @@
       <c r="F57" t="n">
         <v>0</v>
       </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -71589,6 +72879,46 @@
       <c r="F2454" t="n">
         <v>1</v>
       </c>
+      <c r="G2454" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="M2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="N2454" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="2455">
       <c r="A2455" t="inlineStr">
@@ -81711,6 +83041,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2804"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
